--- a/Provinence3/GD.xlsx
+++ b/Provinence3/GD.xlsx
@@ -5,21 +5,22 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\UnityProjects\p3.git\Provinence3\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Rep_Pro3\Provinence3\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25200" windowHeight="11295"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25200" windowHeight="11295" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
+    <sheet name="Gold" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="33">
   <si>
     <t>lvl</t>
   </si>
@@ -73,12 +74,60 @@
   </si>
   <si>
     <t>M</t>
+  </si>
+  <si>
+    <t>Level</t>
+  </si>
+  <si>
+    <t>GoldPerMonster</t>
+  </si>
+  <si>
+    <t>BaseGoldPerMonster</t>
+  </si>
+  <si>
+    <t>BaseGoldPerCHest</t>
+  </si>
+  <si>
+    <t>GoldChest</t>
+  </si>
+  <si>
+    <t>av_chest_per_lvl</t>
+  </si>
+  <si>
+    <t>av_monsters</t>
+  </si>
+  <si>
+    <t>GoldFromMonsters</t>
+  </si>
+  <si>
+    <t>GoldFromChests</t>
+  </si>
+  <si>
+    <t>Total</t>
+  </si>
+  <si>
+    <t>LevelUpCost</t>
+  </si>
+  <si>
+    <t>ChestItemCost</t>
+  </si>
+  <si>
+    <t>L</t>
+  </si>
+  <si>
+    <t>C</t>
+  </si>
+  <si>
+    <t>LevlUpCoef</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <numFmts count="1">
+    <numFmt numFmtId="165" formatCode="0.0"/>
+  </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -123,7 +172,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="4">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -160,13 +209,22 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
@@ -176,6 +234,25 @@
     <xf numFmtId="2" fontId="2" fillId="3" borderId="0" xfId="1" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="2" fontId="1" fillId="2" borderId="0" xfId="2" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Нейтральный" xfId="1" builtinId="28"/>
@@ -460,7 +537,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O57"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="R12" sqref="R12"/>
     </sheetView>
   </sheetViews>
@@ -2411,4 +2488,511 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:J14"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="M14" sqref="M14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="20.42578125" customWidth="1"/>
+    <col min="2" max="2" width="19.28515625" customWidth="1"/>
+    <col min="3" max="3" width="15.7109375" customWidth="1"/>
+    <col min="4" max="4" width="20.85546875" customWidth="1"/>
+    <col min="5" max="5" width="21.42578125" customWidth="1"/>
+    <col min="6" max="6" width="12.7109375" customWidth="1"/>
+    <col min="7" max="7" width="12.140625" customWidth="1"/>
+    <col min="8" max="8" width="13.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1" s="9">
+        <f>23</f>
+        <v>23</v>
+      </c>
+      <c r="B1" s="9">
+        <f>109</f>
+        <v>109</v>
+      </c>
+      <c r="C1" s="9"/>
+      <c r="D1" s="9">
+        <v>45</v>
+      </c>
+      <c r="E1" s="9">
+        <v>13</v>
+      </c>
+      <c r="F1" s="9"/>
+      <c r="G1" s="9">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C2" s="1"/>
+      <c r="D2" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="F2" s="1"/>
+      <c r="G2" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="B4" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="C4" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="D4" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="E4" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="F4" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="G4" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="H4" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="I4" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="J4" s="11" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A5" s="12">
+        <v>1</v>
+      </c>
+      <c r="B5" s="12">
+        <f>$A$1*$A5</f>
+        <v>23</v>
+      </c>
+      <c r="C5" s="12">
+        <f>POWER($A5,0.6)*$B$1</f>
+        <v>109</v>
+      </c>
+      <c r="D5" s="12">
+        <f>$B5*$D$1</f>
+        <v>1035</v>
+      </c>
+      <c r="E5" s="13">
+        <f>$C5*$E$1</f>
+        <v>1417</v>
+      </c>
+      <c r="F5" s="13">
+        <f>D5+E5</f>
+        <v>2452</v>
+      </c>
+      <c r="G5" s="12">
+        <f>F5*($G$1+A5)/2</f>
+        <v>3678</v>
+      </c>
+      <c r="H5" s="12">
+        <f>F5*2*POWER(A5,0.37)</f>
+        <v>4904</v>
+      </c>
+      <c r="I5" s="14">
+        <f>G5/F5</f>
+        <v>1.5</v>
+      </c>
+      <c r="J5" s="14">
+        <f>H5/F5</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A6" s="12">
+        <v>2</v>
+      </c>
+      <c r="B6" s="12">
+        <f>$A$1*$A6</f>
+        <v>46</v>
+      </c>
+      <c r="C6" s="12">
+        <f t="shared" ref="C6:D14" si="0">POWER($A6,0.6)*$B$1</f>
+        <v>165.21310574963337</v>
+      </c>
+      <c r="D6" s="12">
+        <f t="shared" ref="D6:D14" si="1">$B6*$D$1</f>
+        <v>2070</v>
+      </c>
+      <c r="E6" s="15">
+        <f t="shared" ref="E6:E14" si="2">$C6*$E$1</f>
+        <v>2147.7703747452338</v>
+      </c>
+      <c r="F6" s="15">
+        <f t="shared" ref="F6:F14" si="3">D6+E6</f>
+        <v>4217.7703747452342</v>
+      </c>
+      <c r="G6" s="12">
+        <f t="shared" ref="G6:G14" si="4">F6*($G$1+A6)/2</f>
+        <v>8435.5407494904684</v>
+      </c>
+      <c r="H6" s="12">
+        <f t="shared" ref="H6:H14" si="5">F6*2*POWER(A6,0.37)</f>
+        <v>10901.694965561921</v>
+      </c>
+      <c r="I6" s="14">
+        <f t="shared" ref="I6:I14" si="6">G6/F6</f>
+        <v>2</v>
+      </c>
+      <c r="J6" s="14">
+        <f t="shared" ref="J6:J14" si="7">H6/F6</f>
+        <v>2.5847056612749846</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A7" s="12">
+        <v>3</v>
+      </c>
+      <c r="B7" s="12">
+        <f t="shared" ref="B6:B14" si="8">$A$1*$A7</f>
+        <v>69</v>
+      </c>
+      <c r="C7" s="12">
+        <f t="shared" si="0"/>
+        <v>210.71684289756215</v>
+      </c>
+      <c r="D7" s="12">
+        <f t="shared" si="1"/>
+        <v>3105</v>
+      </c>
+      <c r="E7" s="15">
+        <f t="shared" si="2"/>
+        <v>2739.318957668308</v>
+      </c>
+      <c r="F7" s="15">
+        <f t="shared" si="3"/>
+        <v>5844.318957668308</v>
+      </c>
+      <c r="G7" s="12">
+        <f t="shared" si="4"/>
+        <v>14610.79739417077</v>
+      </c>
+      <c r="H7" s="12">
+        <f t="shared" si="5"/>
+        <v>17550.874863169949</v>
+      </c>
+      <c r="I7" s="14">
+        <f t="shared" si="6"/>
+        <v>2.5</v>
+      </c>
+      <c r="J7" s="14">
+        <f t="shared" si="7"/>
+        <v>3.0030658816356208</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A8" s="12">
+        <v>4</v>
+      </c>
+      <c r="B8" s="12">
+        <f t="shared" si="8"/>
+        <v>92</v>
+      </c>
+      <c r="C8" s="12">
+        <f>POWER($A8,0.6)*$B$1</f>
+        <v>250.41624138935364</v>
+      </c>
+      <c r="D8" s="12">
+        <f t="shared" si="1"/>
+        <v>4140</v>
+      </c>
+      <c r="E8" s="15">
+        <f t="shared" si="2"/>
+        <v>3255.4111380615973</v>
+      </c>
+      <c r="F8" s="15">
+        <f t="shared" si="3"/>
+        <v>7395.4111380615977</v>
+      </c>
+      <c r="G8" s="12">
+        <f t="shared" si="4"/>
+        <v>22186.233414184793</v>
+      </c>
+      <c r="H8" s="12">
+        <f t="shared" si="5"/>
+        <v>24703.274002404996</v>
+      </c>
+      <c r="I8" s="14">
+        <f t="shared" si="6"/>
+        <v>3</v>
+      </c>
+      <c r="J8" s="14">
+        <f t="shared" si="7"/>
+        <v>3.3403516777134774</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A9" s="12">
+        <v>5</v>
+      </c>
+      <c r="B9" s="12">
+        <f t="shared" si="8"/>
+        <v>115</v>
+      </c>
+      <c r="C9" s="12">
+        <f t="shared" si="0"/>
+        <v>286.29153068001062</v>
+      </c>
+      <c r="D9" s="12">
+        <f t="shared" si="1"/>
+        <v>5175</v>
+      </c>
+      <c r="E9" s="15">
+        <f t="shared" si="2"/>
+        <v>3721.789898840138</v>
+      </c>
+      <c r="F9" s="15">
+        <f t="shared" si="3"/>
+        <v>8896.7898988401375</v>
+      </c>
+      <c r="G9" s="12">
+        <f t="shared" si="4"/>
+        <v>31138.764645940482</v>
+      </c>
+      <c r="H9" s="12">
+        <f t="shared" si="5"/>
+        <v>32276.187663736313</v>
+      </c>
+      <c r="I9" s="14">
+        <f t="shared" si="6"/>
+        <v>3.5</v>
+      </c>
+      <c r="J9" s="14">
+        <f t="shared" si="7"/>
+        <v>3.6278464514424598</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A10" s="12">
+        <v>6</v>
+      </c>
+      <c r="B10" s="12">
+        <f t="shared" si="8"/>
+        <v>138</v>
+      </c>
+      <c r="C10" s="12">
+        <f t="shared" si="0"/>
+        <v>319.38700962260378</v>
+      </c>
+      <c r="D10" s="12">
+        <f t="shared" si="1"/>
+        <v>6210</v>
+      </c>
+      <c r="E10" s="15">
+        <f t="shared" si="2"/>
+        <v>4152.0311250938494</v>
+      </c>
+      <c r="F10" s="15">
+        <f t="shared" si="3"/>
+        <v>10362.03112509385</v>
+      </c>
+      <c r="G10" s="12">
+        <f t="shared" si="4"/>
+        <v>41448.124500375401</v>
+      </c>
+      <c r="H10" s="12">
+        <f t="shared" si="5"/>
+        <v>40215.25721512561</v>
+      </c>
+      <c r="I10" s="14">
+        <f t="shared" si="6"/>
+        <v>4</v>
+      </c>
+      <c r="J10" s="14">
+        <f t="shared" si="7"/>
+        <v>3.8810206927226707</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A11" s="12">
+        <v>7</v>
+      </c>
+      <c r="B11" s="12">
+        <f t="shared" si="8"/>
+        <v>161</v>
+      </c>
+      <c r="C11" s="12">
+        <f t="shared" si="0"/>
+        <v>350.33644761904816</v>
+      </c>
+      <c r="D11" s="12">
+        <f t="shared" si="1"/>
+        <v>7245</v>
+      </c>
+      <c r="E11" s="15">
+        <f t="shared" si="2"/>
+        <v>4554.3738190476261</v>
+      </c>
+      <c r="F11" s="15">
+        <f t="shared" si="3"/>
+        <v>11799.373819047625</v>
+      </c>
+      <c r="G11" s="12">
+        <f t="shared" si="4"/>
+        <v>53097.182185714315</v>
+      </c>
+      <c r="H11" s="12">
+        <f t="shared" si="5"/>
+        <v>48481.408744090397</v>
+      </c>
+      <c r="I11" s="14">
+        <f t="shared" si="6"/>
+        <v>4.5</v>
+      </c>
+      <c r="J11" s="14">
+        <f t="shared" si="7"/>
+        <v>4.1088120003306692</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A12" s="12">
+        <v>8</v>
+      </c>
+      <c r="B12" s="12">
+        <f t="shared" si="8"/>
+        <v>184</v>
+      </c>
+      <c r="C12" s="12">
+        <f t="shared" si="0"/>
+        <v>379.5600455971101</v>
+      </c>
+      <c r="D12" s="12">
+        <f t="shared" si="1"/>
+        <v>8280</v>
+      </c>
+      <c r="E12" s="15">
+        <f t="shared" si="2"/>
+        <v>4934.2805927624313</v>
+      </c>
+      <c r="F12" s="15">
+        <f t="shared" si="3"/>
+        <v>13214.280592762432</v>
+      </c>
+      <c r="G12" s="12">
+        <f t="shared" si="4"/>
+        <v>66071.402963812157</v>
+      </c>
+      <c r="H12" s="12">
+        <f t="shared" si="5"/>
+        <v>57044.898963206695</v>
+      </c>
+      <c r="I12" s="14">
+        <f t="shared" si="6"/>
+        <v>5</v>
+      </c>
+      <c r="J12" s="14">
+        <f t="shared" si="7"/>
+        <v>4.316912946017708</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A13" s="12">
+        <v>9</v>
+      </c>
+      <c r="B13" s="12">
+        <f t="shared" si="8"/>
+        <v>207</v>
+      </c>
+      <c r="C13" s="12">
+        <f t="shared" si="0"/>
+        <v>407.3540172542742</v>
+      </c>
+      <c r="D13" s="12">
+        <f t="shared" si="1"/>
+        <v>9315</v>
+      </c>
+      <c r="E13" s="15">
+        <f t="shared" si="2"/>
+        <v>5295.602224305565</v>
+      </c>
+      <c r="F13" s="15">
+        <f t="shared" si="3"/>
+        <v>14610.602224305565</v>
+      </c>
+      <c r="G13" s="12">
+        <f t="shared" si="4"/>
+        <v>80358.312233680612</v>
+      </c>
+      <c r="H13" s="12">
+        <f t="shared" si="5"/>
+        <v>65882.161807638608</v>
+      </c>
+      <c r="I13" s="14">
+        <f t="shared" si="6"/>
+        <v>5.5</v>
+      </c>
+      <c r="J13" s="14">
+        <f t="shared" si="7"/>
+        <v>4.5092023447219649</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A14" s="12">
+        <v>10</v>
+      </c>
+      <c r="B14" s="12">
+        <f t="shared" si="8"/>
+        <v>230</v>
+      </c>
+      <c r="C14" s="12">
+        <f t="shared" si="0"/>
+        <v>433.93681590331204</v>
+      </c>
+      <c r="D14" s="12">
+        <f t="shared" si="1"/>
+        <v>10350</v>
+      </c>
+      <c r="E14" s="15">
+        <f t="shared" si="2"/>
+        <v>5641.1786067430567</v>
+      </c>
+      <c r="F14" s="15">
+        <f t="shared" si="3"/>
+        <v>15991.178606743057</v>
+      </c>
+      <c r="G14" s="12">
+        <f t="shared" si="4"/>
+        <v>95947.071640458336</v>
+      </c>
+      <c r="H14" s="12">
+        <f t="shared" si="5"/>
+        <v>74973.963361709117</v>
+      </c>
+      <c r="I14" s="14">
+        <f t="shared" si="6"/>
+        <v>6</v>
+      </c>
+      <c r="J14" s="14">
+        <f t="shared" si="7"/>
+        <v>4.688457630639844</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>